--- a/db_structure/017. Finished Goods Received from Production.xlsx
+++ b/db_structure/017. Finished Goods Received from Production.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,6 +464,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -499,6 +516,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +766,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -746,7 +780,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -760,7 +794,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>62</v>
@@ -794,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/db_structure/017. Finished Goods Received from Production.xlsx
+++ b/db_structure/017. Finished Goods Received from Production.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B829E9E1-FBFE-4516-AAA3-77856A5B1D1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t>Document Number</t>
   </si>
@@ -269,9 +270,6 @@
     <t>pism_id</t>
   </si>
   <si>
-    <t>pism_pish_id</t>
-  </si>
-  <si>
     <t>pism_ser</t>
   </si>
   <si>
@@ -309,12 +307,21 @@
   </si>
   <si>
     <t>pisd_gnrs_id</t>
+  </si>
+  <si>
+    <t>pism_rish_id</t>
+  </si>
+  <si>
+    <t>New Version Mysql</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,13 +377,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,9 +737,10 @@
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -734,14 +749,14 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -750,7 +765,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -763,8 +778,11 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>143</v>
       </c>
@@ -777,8 +795,11 @@
       <c r="F7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>144</v>
       </c>
@@ -791,8 +812,11 @@
       <c r="F8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>145</v>
       </c>
@@ -805,17 +829,20 @@
       <c r="F9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -825,11 +852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1109,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1121,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1139,7 +1166,7 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1158,7 +1185,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1169,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1186,7 +1213,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1198,37 +1225,37 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1237,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1255,7 +1282,7 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1273,7 +1300,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -1291,7 +1318,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1309,7 +1336,7 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
